--- a/Comm100-Work/面试资料/夏凌杰/研发面试评估表_项目经理_夏凌杰.xlsx
+++ b/Comm100-Work/面试资料/夏凌杰/研发面试评估表_项目经理_夏凌杰.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hejia/GitHub/MyDocument/Comm100-Work/面试资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hejia/GitHub/MyDocument/Comm100-Work/面试资料/夏凌杰/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -372,8 +372,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -445,7 +447,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -461,6 +463,7 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -475,6 +478,7 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,7 +759,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+      <selection activeCell="B3" sqref="B3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -794,67 +798,95 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
@@ -862,11 +894,15 @@
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
@@ -874,7 +910,9 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
@@ -883,7 +921,9 @@
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
@@ -893,7 +933,9 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
@@ -903,7 +945,9 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -915,21 +959,21 @@
       </c>
       <c r="C14" s="10">
         <f>SUM(C4:C13)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(E4:E13)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(G4:G13)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
